--- a/prep_and_checklists/Emily Sundberg & Jake Cohen	/Emily Sundberg & Jake Cohen	_2025-04-12_0.xlsx
+++ b/prep_and_checklists/Emily Sundberg & Jake Cohen	/Emily Sundberg & Jake Cohen	_2025-04-12_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Emily Sundberg &amp; Jake Cohen_x0009_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4013AA-F1A8-6D4C-AD5B-975C49314EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881390D5-E8A7-7647-8498-CD4659B57A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +599,21 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -642,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +668,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,720 +977,753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B110"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="101" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="106" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="E59" s="8" t="s">
         <v>176</v>
       </c>
+    </row>
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup scale="52" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2161,5 +2216,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>